--- a/API_Framework/TestDatas/api_info_1.xlsx
+++ b/API_Framework/TestDatas/api_info_1.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemii/TestProjects/API_Framework/TestDatas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="2100" windowWidth="23560" windowHeight="12960" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用例编写说明" sheetId="1" r:id="rId1"/>
     <sheet name="case_datas" sheetId="2" r:id="rId2"/>
     <sheet name="init_data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>case_datas表单注意事项：</t>
   </si>
@@ -64,6 +51,12 @@
     <t>expected_data</t>
   </si>
   <si>
+    <t>comare_type</t>
+  </si>
+  <si>
+    <t>related_exp</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
@@ -127,7 +120,7 @@
     <t>{"mobilephone":"156027090011","pwd":"12345678"}</t>
   </si>
   <si>
-    <t>密码少于8位</t>
+    <t>密码少于6位</t>
   </si>
   <si>
     <t>{"mobilephone":"${phone3}","pwd":"12345"}</t>
@@ -136,7 +129,7 @@
     <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
   </si>
   <si>
-    <t>密码多于16位</t>
+    <t>密码多于18位</t>
   </si>
   <si>
     <t>{"mobilephone":"${phone3}","pwd":"1234567890cheese111"}</t>
@@ -146,6 +139,268 @@
   </si>
   <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>成功登陆</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>用户名为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"1234567890"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone1}","pwd":""}</t>
+  </si>
+  <si>
+    <t>用户名错误</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone3}","pwd":"1234567890"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone1}","pwd":"12345678911"}</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>充值成功-整数</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":"500"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{.*"mobilephone":"${phone}","leaveamount":"500.00".*},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>${user_id}="id":(\d*),</t>
+  </si>
+  <si>
+    <t>充值成功-1位小数</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":"200.3"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{.*"mobilephone":"${phone}","leaveamount":"700.30".*},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>充值成功-2位小数</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":"200.35"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{.*"mobilephone":"${phone}","leaveamount":"900.65".*},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","amount":"200.35"}</t>
+  </si>
+  <si>
+    <t>充值金额为0</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":"0"}</t>
+  </si>
+  <si>
+    <t>充值金额为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>手机号-少于11位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1376024607","amount":"200"}</t>
+  </si>
+  <si>
+    <t>手机号-多于11位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1376024607011","amount":"200"}</t>
+  </si>
+  <si>
+    <t>手机号-会员不存在</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${noReg_phone}","amount":"200"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>充值金额-3位小数</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":"200.333"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>充值金额-大于50万</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":"500001"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>充值金额-非数字</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":"200块"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+  </si>
+  <si>
+    <t>取现</t>
+  </si>
+  <si>
+    <t>取现200</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api//member/withdraw</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${phone}","amount":"200"}</t>
+  </si>
+  <si>
+    <t>获取用户投资记录</t>
+  </si>
+  <si>
+    <t>getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>{"memberId":${user_id}}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":[],"msg":"获取用户投资列表成功"}</t>
+  </si>
+  <si>
+    <t>新增项目</t>
+  </si>
+  <si>
+    <t>加标成功</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId":"${user_id}","title":"接口自动化_小简_${phone}","amount":50000,"loanRate":10,"loanTerm":90,"loanDateType":2,
+         "repaymemtWay":10,"biddingDays":10}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+  </si>
+  <si>
+    <t>获取标列表</t>
+  </si>
+  <si>
+    <t>获取所有标</t>
+  </si>
+  <si>
+    <t>getLoanList</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/loan/getLoanList</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":.*,"msg":"获取标列表成功"}</t>
+  </si>
+  <si>
+    <t>${loan_id}="id":"(\d*)",[^{}]*,"title":"接口自动化_小简_${phone}"</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>将标改为竞标中</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/loan/audit</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":4}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>投资成功</t>
+  </si>
+  <si>
+    <t>bidLoan</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>{"memberId":"${user_id}","password":"1234567890","loanId":"${loan_id}","amount":"500"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
+  </si>
+  <si>
+    <t>获取标投资信息</t>
+  </si>
+  <si>
+    <t>getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>{"loanId":${loan_id}}</t>
   </si>
   <si>
     <t>键名</t>
@@ -163,41 +418,192 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,18 +618,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -270,17 +874,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -289,33 +1189,144 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -368,7 +1379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -403,7 +1414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -606,348 +1617,1026 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="60.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="49" customHeight="1" spans="1:1">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="24" customHeight="1" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="24" customHeight="1" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16" style="8" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="55" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="87.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="I1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:10">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:10">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:10">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:10">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:10">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:10">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:10">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:10">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:10">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:10">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:10">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:10">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:10">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:10">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="33">
+        <v>1</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="33">
+        <v>1</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="3" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1</v>
+      </c>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="34">
+        <v>1</v>
+      </c>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="17" customHeight="1" spans="1:9">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="B28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="17" customHeight="1" spans="1:9">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="B30" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B31" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="34">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
+      <c r="B32" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="32" customHeight="1" spans="1:10">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="B33" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="17" customHeight="1" spans="1:9">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F34" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B27"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I27 I28 I29 I30 I31 I34 I2:I9 I10:I15 I16:I26 I32:I33">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>